--- a/docs/BackupTable.xlsx
+++ b/docs/BackupTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
   <si>
     <t>Test ID</t>
   </si>
@@ -66,102 +66,6 @@
     <t>Precondition: app is trying to add an event with endYear &lt; 2013</t>
   </si>
   <si>
-    <t>Precondition: app is trying to add an event with startMonth &gt; 12</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endMonth &gt; 12</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with startMonth &lt; 1</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endMonth  &lt; 1</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with startDay &gt; 31 when startMonth =1</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endDay &gt; 31 when endMonth =1</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with startDay &gt; 28 when startMonth = 2 and startYear is not (divisible by 400) nor (divisible by 4 and not by 100)</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endDay &gt; 28 when endMonth = 2 and endYear is not (divisible by 400) nor (divisible by 4 and not by 100)</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with startDay = 29 when startMonth = 2 and startYear is either (divisible by 400) or (divisible by 4 and not by 100)</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endDay = 29 when endMonth = 2 and endYear is either (divisible by 400) or (divisible by 4 and not by 100)</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with startDay &gt; 31 when startMonth =3</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endDay &gt; 31 when endMonth =3</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with startDay &gt; 30 when startMonth =4</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endDay &gt; 30 when endMonth =4</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with startDay &gt; 31 when startMonth =5</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endDay &gt; 31 when endMonth =5</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with startDay &gt; 30 when startMonth =6</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endDay &gt; 30 when endMonth =6</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with startDay &gt; 31 when startMonth =7</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endDay &gt; 31 when endMonth =7</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with startDay &gt; 31 when startMonth =8</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endDay &gt; 31 when endMonth =8</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with startDay &gt; 30 when startMonth =9</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endDay &gt; 30 when endMonth =9</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with startDay &gt; 31 when startMonth =10</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endDay &gt; 31 when endMonth =10</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with startDay &gt; 30 when startMonth =11</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endDay &gt; 30 when endMonth =11</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with startDay &gt; 31 when startMonth =12</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endDay &gt; 31 when endMonth =12</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with startDay &lt; 1</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endDay &lt; 1</t>
-  </si>
-  <si>
     <t>Precondition: app is trying to add an event with startHour &gt;23</t>
   </si>
   <si>
@@ -189,9 +93,6 @@
     <t>Precondition: app is trying to add an event with timezone != (UC time zone)</t>
   </si>
   <si>
-    <t>Precondition: app is trying to add an event with title = null</t>
-  </si>
-  <si>
     <t>Precondition: app is trying to add an event with CalendarID that does not exist</t>
   </si>
   <si>
@@ -232,13 +133,76 @@
   </si>
   <si>
     <t>Precondition: app is trying to add an event with endMinute &gt; startMinute and endHour = startHour and endDay = startDay and endMonth = startMonth and endYear = startYear</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with startMonth &gt; 11</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with endMonth &gt; 11</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with startMonth &lt; 0</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with endMonth  &lt; 0</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with startDay &gt; 28 when startMonth = 1 and startYear is not (divisible by 400) nor (divisible by 4 and not by 100)</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with endDay &gt; 28 when endMonth = 1 and endYear is not (divisible by 400) nor (divisible by 4 and not by 100)</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with startDay = 29 when startMonth = 1 and startYear is either (divisible by 400) or (divisible by 4 and not by 100)</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with endDay = 29 when endMonth = 1 and endYear is either (divisible by 400) or (divisible by 4 and not by 100)</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with startDay &gt; 30 when startMonth = 3</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with endDay &gt; 30 when endMonth = 3</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with startDay &gt; 30 when startMonth = 5</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with endDay &gt; 30 when endMonth = 5</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with startDay &gt; 30 when startMonth = 8</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with endDay &gt; 30 when endMonth = 8</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with startDay &gt; 30 when startMonth = 10</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with endDay &gt; 30 when endMonth = 10</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with startDay &gt; 31</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with endDay &gt; 31</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with startDay &lt; 0</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with endDay &lt; 0</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with title = empty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,8 +217,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +250,21 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -362,10 +362,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -389,8 +392,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -683,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -789,11 +804,11 @@
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>61</v>
+      <c r="C9" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -802,24 +817,24 @@
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>62</v>
+      <c r="C10" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="45.75" thickBot="1">
       <c r="A11" s="4">
-        <f t="shared" ref="A11:A65" si="0">A10+1</f>
+        <f t="shared" ref="A11:A53" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>62</v>
+      <c r="C11" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -828,11 +843,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>62</v>
+      <c r="B12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D12" s="5"/>
     </row>
@@ -841,11 +856,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>61</v>
+      <c r="B13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="D13" s="5"/>
     </row>
@@ -854,11 +869,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>62</v>
+      <c r="B14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -867,11 +882,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>62</v>
+      <c r="B15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -880,11 +895,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>62</v>
+      <c r="B16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -893,11 +908,11 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>62</v>
+      <c r="B17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -906,11 +921,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>62</v>
+      <c r="B18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -919,37 +934,37 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>61</v>
+      <c r="B19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="60.75" thickBot="1">
+    <row r="20" spans="1:4" ht="45.75" thickBot="1">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>62</v>
+      <c r="B20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="60.75" thickBot="1">
+    <row r="21" spans="1:4" ht="45.75" thickBot="1">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>62</v>
+      <c r="B21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -958,11 +973,11 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>62</v>
+      <c r="B22" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D22" s="6"/>
     </row>
@@ -971,11 +986,11 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>62</v>
+      <c r="B23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -984,11 +999,11 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>61</v>
+      <c r="B24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="D24" s="6"/>
     </row>
@@ -997,11 +1012,11 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>61</v>
+      <c r="B25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -1010,11 +1025,11 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>62</v>
+      <c r="B26" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D26" s="6"/>
     </row>
@@ -1023,11 +1038,11 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>62</v>
+      <c r="B27" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -1036,11 +1051,11 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>62</v>
+      <c r="B28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D28" s="6"/>
     </row>
@@ -1049,11 +1064,11 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>62</v>
+      <c r="B29" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D29" s="6"/>
     </row>
@@ -1062,11 +1077,11 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>62</v>
+      <c r="B30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D30" s="6"/>
     </row>
@@ -1075,11 +1090,11 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>62</v>
+      <c r="B31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D31" s="6"/>
     </row>
@@ -1088,11 +1103,11 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>62</v>
+      <c r="B32" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D32" s="6"/>
     </row>
@@ -1101,167 +1116,167 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A34" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A35" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" ht="90.75" thickBot="1">
+      <c r="A36" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" ht="90.75" thickBot="1">
+      <c r="A37" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A38" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A39" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A40" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A41" s="4">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A34" s="4">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="B41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" ht="105.75" thickBot="1">
+      <c r="A42" s="4">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A35" s="4">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="B42" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" ht="105.75" thickBot="1">
+      <c r="A43" s="4">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A36" s="4">
-        <f t="shared" si="0"/>
+      <c r="B43" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A44" s="4">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A37" s="4">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="B44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A45" s="4">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A38" s="4">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A39" s="4">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A40" s="4">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A41" s="4">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A42" s="4">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A43" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A44" s="4">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A45" s="4">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>62</v>
+      <c r="B45" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D45" s="6"/>
     </row>
@@ -1270,11 +1285,11 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>62</v>
+      <c r="B46" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D46" s="6"/>
     </row>
@@ -1283,50 +1298,50 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>62</v>
+      <c r="B47" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4" ht="90.75" thickBot="1">
+    <row r="48" spans="1:4" ht="135.75" thickBot="1">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>62</v>
+      <c r="B48" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4" ht="90.75" thickBot="1">
+    <row r="49" spans="1:4" ht="135.75" thickBot="1">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>61</v>
+      <c r="B49" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4" ht="45.75" thickBot="1">
+    <row r="50" spans="1:4" ht="60.75" thickBot="1">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>62</v>
+      <c r="B50" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="D50" s="6"/>
     </row>
@@ -1335,24 +1350,24 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>62</v>
+      <c r="B51" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" ht="45.75" thickBot="1">
+    <row r="52" spans="1:4" ht="60.75" thickBot="1">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>62</v>
+      <c r="B52" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D52" s="6"/>
     </row>
@@ -1361,169 +1376,13 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>62</v>
+      <c r="B53" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" ht="105.75" thickBot="1">
-      <c r="A54" s="4">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:4" ht="105.75" thickBot="1">
-      <c r="A55" s="4">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A56" s="4">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A57" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A58" s="4">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A59" s="4">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:4" ht="135.75" thickBot="1">
-      <c r="A60" s="4">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="1:4" ht="135.75" thickBot="1">
-      <c r="A61" s="4">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A62" s="4">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A63" s="4">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A64" s="4">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D64" s="6"/>
-    </row>
-    <row r="65" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A65" s="4">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D65" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/docs/BackupTable.xlsx
+++ b/docs/BackupTable.xlsx
@@ -147,48 +147,6 @@
     <t>Precondition: app is trying to add an event with endMonth  &lt; 0</t>
   </si>
   <si>
-    <t>Precondition: app is trying to add an event with startDay &gt; 28 when startMonth = 1 and startYear is not (divisible by 400) nor (divisible by 4 and not by 100)</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endDay &gt; 28 when endMonth = 1 and endYear is not (divisible by 400) nor (divisible by 4 and not by 100)</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with startDay = 29 when startMonth = 1 and startYear is either (divisible by 400) or (divisible by 4 and not by 100)</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endDay = 29 when endMonth = 1 and endYear is either (divisible by 400) or (divisible by 4 and not by 100)</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with startDay &gt; 30 when startMonth = 3</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endDay &gt; 30 when endMonth = 3</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with startDay &gt; 30 when startMonth = 5</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endDay &gt; 30 when endMonth = 5</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with startDay &gt; 30 when startMonth = 8</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endDay &gt; 30 when endMonth = 8</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with startDay &gt; 30 when startMonth = 10</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endDay &gt; 30 when endMonth = 10</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with startDay &gt; 31</t>
-  </si>
-  <si>
-    <t>Precondition: app is trying to add an event with endDay &gt; 31</t>
-  </si>
-  <si>
     <t>Precondition: app is trying to add an event with startDay &lt; 0</t>
   </si>
   <si>
@@ -196,6 +154,48 @@
   </si>
   <si>
     <t>Precondition: app is trying to add an event with title = empty</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with startDay &gt; 30</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with endDay &gt; 30</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with startDay &gt; 27 when startMonth = 1 and startYear is not (divisible by 400) nor (divisible by 4 and not by 100)</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with endDay &gt; 27 when endMonth = 1 and endYear is not (divisible by 400) nor (divisible by 4 and not by 100)</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with startDay = 28 when startMonth = 1 and startYear is either (divisible by 400) or (divisible by 4 and not by 100)</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with endDay = 28 when endMonth = 1 and endYear is either (divisible by 400) or (divisible by 4 and not by 100)</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with startDay &gt; 29 when startMonth = 3</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with endDay &gt; 29 when endMonth = 3</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with startDay &gt; 29 when startMonth = 5</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with endDay &gt; 29 when endMonth = 5</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with startDay &gt; 29 when startMonth = 8</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with endDay &gt; 29 when endMonth = 8</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with startDay &gt; 29 when startMonth = 10</t>
+  </si>
+  <si>
+    <t>Precondition: app is trying to add an event with endDay &gt; 29 when endMonth = 10</t>
   </si>
 </sst>
 </file>
@@ -388,10 +388,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -401,6 +397,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -727,12 +727,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="60.75" thickBot="1">
       <c r="A3" s="4">
@@ -760,12 +760,12 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" ht="60.75" thickBot="1">
       <c r="A6" s="4">
@@ -793,21 +793,21 @@
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" ht="60.75" thickBot="1">
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="6"/>
@@ -817,10 +817,10 @@
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="6"/>
@@ -830,10 +830,10 @@
         <f t="shared" ref="A11:A53" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="6"/>
@@ -843,10 +843,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="5"/>
@@ -856,10 +856,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="5"/>
@@ -869,10 +869,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="6"/>
@@ -882,10 +882,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="6"/>
@@ -895,10 +895,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="6"/>
@@ -908,10 +908,10 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="6"/>
@@ -921,10 +921,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="6"/>
@@ -934,10 +934,10 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="6"/>
@@ -947,10 +947,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="6"/>
@@ -960,10 +960,10 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="6"/>
@@ -973,10 +973,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="6"/>
@@ -986,10 +986,10 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="13" t="s">
+      <c r="B23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="6"/>
@@ -999,10 +999,10 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="6"/>
@@ -1012,10 +1012,10 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="6"/>
@@ -1025,10 +1025,10 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="6"/>
@@ -1038,10 +1038,10 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="6"/>
@@ -1051,10 +1051,10 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="13" t="s">
+      <c r="B28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="6"/>
@@ -1064,10 +1064,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="6"/>
@@ -1077,10 +1077,10 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="13" t="s">
+      <c r="B30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="6"/>
@@ -1090,10 +1090,10 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="13" t="s">
+      <c r="B31" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="6"/>
@@ -1103,10 +1103,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="13" t="s">
+      <c r="B32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="6"/>
@@ -1116,10 +1116,10 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="6"/>
@@ -1129,10 +1129,10 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="13" t="s">
+      <c r="B34" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="6"/>
@@ -1142,10 +1142,10 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="13" t="s">
+      <c r="B35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="6"/>
@@ -1155,10 +1155,10 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="6"/>
@@ -1168,10 +1168,10 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="6"/>
@@ -1181,10 +1181,10 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D38" s="6"/>
@@ -1194,10 +1194,10 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="6"/>
@@ -1207,10 +1207,10 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D40" s="6"/>
@@ -1220,10 +1220,10 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D41" s="6"/>
@@ -1233,10 +1233,10 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D42" s="6"/>
@@ -1246,10 +1246,10 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="6"/>
@@ -1259,10 +1259,10 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D44" s="6"/>
@@ -1272,10 +1272,10 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D45" s="6"/>
@@ -1285,10 +1285,10 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D46" s="6"/>
@@ -1298,10 +1298,10 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D47" s="6"/>
@@ -1311,10 +1311,10 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="6"/>
@@ -1324,10 +1324,10 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D49" s="6"/>
@@ -1337,10 +1337,10 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D50" s="6"/>
@@ -1350,10 +1350,10 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="13" t="s">
+      <c r="B51" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D51" s="6"/>
@@ -1363,10 +1363,10 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D52" s="6"/>
@@ -1376,10 +1376,10 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D53" s="6"/>
